--- a/database/mis_registros/carreras.xlsx
+++ b/database/mis_registros/carreras.xlsx
@@ -228,9 +228,6 @@
     <t>Técnico en Laboratorio Clínico</t>
   </si>
   <si>
-    <t>Ingeniería de Sistemas Informáticas</t>
-  </si>
-  <si>
     <t>Licenciatura en Ciencias del Lenguaje y la Literatura</t>
   </si>
   <si>
@@ -268,6 +265,9 @@
   </si>
   <si>
     <t>Profesorado en Matemática</t>
+  </si>
+  <si>
+    <t>Ingeniería de Sistemas Informáticos</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1076,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1100,7 +1102,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -1125,7 +1127,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -1175,7 +1177,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -1260,7 +1262,7 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
@@ -1300,7 +1302,7 @@
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
@@ -1335,7 +1337,7 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
@@ -1425,7 +1427,7 @@
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
@@ -1435,22 +1437,22 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
@@ -1460,17 +1462,17 @@
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
